--- a/planning.xlsx
+++ b/planning.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tricia\Documents\GitHub\next-code-rex-2015\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\runpeng\Desktop\git\next-code-rex-2015\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7812" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7815" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Main Structure" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Interleaved categories (solving a puzzle of one type unlocks puzzle of another type) or should each category be separate?</t>
   </si>
@@ -99,6 +99,39 @@
   </si>
   <si>
     <t>omg can we do a picture puzzle</t>
+  </si>
+  <si>
+    <t>Fill in missing colors on a flattened Rubik's cube</t>
+  </si>
+  <si>
+    <t>Conway's game of life to reveal a QR code</t>
+  </si>
+  <si>
+    <t>Initials of the colors reveals the answer</t>
+  </si>
+  <si>
+    <t>Solve a nonagram to reveal a pixelated picture</t>
+  </si>
+  <si>
+    <t>Image can be anything!</t>
+  </si>
+  <si>
+    <t>MIT-themed crossword</t>
+  </si>
+  <si>
+    <t>Verbal arithmetic puzzle, like a cryptarithm with MIT acronyms</t>
+  </si>
+  <si>
+    <t>ew anagrams</t>
+  </si>
+  <si>
+    <t>A word puns puzzle - complete puns with words of a certain category</t>
+  </si>
+  <si>
+    <t>Anagrams of places on campus</t>
+  </si>
+  <si>
+    <t>Mastermind puzzle - find a unique word given data about previous guesses</t>
   </si>
 </sst>
 </file>
@@ -437,37 +470,37 @@
       <selection activeCell="A11" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="48.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -486,12 +519,12 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="48" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -499,7 +532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -520,15 +553,15 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.109375" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="3" max="3" width="42.88671875" customWidth="1"/>
-    <col min="4" max="4" width="35.77734375" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -542,7 +575,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -556,7 +589,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -577,19 +610,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.6640625" customWidth="1"/>
-    <col min="2" max="2" width="62.88671875" customWidth="1"/>
+    <col min="1" max="1" width="63.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -597,9 +630,58 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/planning.xlsx
+++ b/planning.xlsx
@@ -613,7 +613,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/planning.xlsx
+++ b/planning.xlsx
@@ -612,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/planning.xlsx
+++ b/planning.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\runpeng\Desktop\git\next-code-rex-2015\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tricia\Documents\GitHub\next-code-rex-2015\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7815" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7812" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Main Structure" sheetId="1" r:id="rId1"/>
     <sheet name="Speed" sheetId="2" r:id="rId2"/>
     <sheet name="Code" sheetId="3" r:id="rId3"/>
     <sheet name="Logic" sheetId="4" r:id="rId4"/>
+    <sheet name="Nonagram puzzle" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
   <si>
     <t>Interleaved categories (solving a puzzle of one type unlocks puzzle of another type) or should each category be separate?</t>
   </si>
@@ -113,9 +114,6 @@
     <t>Solve a nonagram to reveal a pixelated picture</t>
   </si>
   <si>
-    <t>Image can be anything!</t>
-  </si>
-  <si>
     <t>MIT-themed crossword</t>
   </si>
   <si>
@@ -132,13 +130,79 @@
   </si>
   <si>
     <t>Mastermind puzzle - find a unique word given data about previous guesses</t>
+  </si>
+  <si>
+    <t>I like this!</t>
+  </si>
+  <si>
+    <t>Image can be anything! Ohh what if we combine it with letters, and the letters you don't black out spell something?</t>
+  </si>
+  <si>
+    <t>I was thinking of something like this with colors</t>
+  </si>
+  <si>
+    <t>ANSWER LAST NAME NEXT HOUSEMASTERS</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> q</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>IDK MAYBE HAVE SOME SPACES NOT HAVE LETTERS?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,16 +218,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -171,11 +254,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -184,6 +282,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -199,6 +305,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>208280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="https://img1.etsystatic.com/056/0/9022217/il_fullxfull.709324663_f6m7.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6781800" y="962660"/>
+          <a:ext cx="4533900" cy="3022600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -470,37 +636,37 @@
       <selection activeCell="A11" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="48.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -519,12 +685,12 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="48" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -532,7 +698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -553,15 +719,15 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="33.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="42.88671875" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -575,7 +741,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -589,7 +755,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -610,19 +776,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="63.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.85546875" customWidth="1"/>
+    <col min="1" max="1" width="63.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -630,20 +796,20 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -651,40 +817,577 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:Z21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Y20" sqref="Y20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="21" width="3.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="Z2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="3:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="Z3">
+        <f>6+4+4+4+12</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="3:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="3:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+    </row>
+    <row r="6" spans="3:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="3:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="4"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="3:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="4"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="3:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="4"/>
+    </row>
+    <row r="10" spans="3:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="4"/>
+    </row>
+    <row r="11" spans="3:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+    </row>
+    <row r="12" spans="3:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="U12" s="5"/>
+    </row>
+    <row r="13" spans="3:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+    </row>
+    <row r="14" spans="3:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+    </row>
+    <row r="15" spans="3:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N15" s="4"/>
+      <c r="O15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T15" s="8"/>
+      <c r="U15" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="3:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="U16" s="5"/>
+    </row>
+    <row r="17" spans="2:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S17" s="10"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="4"/>
+    </row>
+    <row r="18" spans="2:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+    </row>
+    <row r="19" spans="2:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="Y19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="2:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+    </row>
+    <row r="21" spans="2:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>